--- a/data/forRasaNluCheque.xlsx
+++ b/data/forRasaNluCheque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NcrAssignments\Internship\Rasa-Nlu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6877FF-6BBF-44AA-A3AA-DCACF75518F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4123B195-6D75-4D77-B08C-187481E13B75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63A47B63-F5E8-41E7-9C98-2A1790E34B17}"/>
   </bookViews>
@@ -332,9 +332,6 @@
     <t>Screen displyed after CLRDEPOS and CLRBINS is still showing the cheques deposited counters not the 0's</t>
   </si>
   <si>
-    <t>(ST1- CPM) q2E ( Device Error) Status message is received for every successful cheque transaction</t>
-  </si>
-  <si>
     <t>(ST1 - CPM ): Cheque is not getting Endorsed</t>
   </si>
   <si>
@@ -1386,6 +1383,9 @@
   </si>
   <si>
     <t>AANDC-3</t>
+  </si>
+  <si>
+    <t>(ST1- CPM) q2E  Device Error  Status message is received for every successful cheque transaction</t>
   </si>
 </sst>
 </file>
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB359F41-6390-4630-BE6B-86A6427B5F76}">
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" t="str">
         <f>"- "&amp;A2</f>
@@ -1777,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">"- "&amp;A3</f>
@@ -1789,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1813,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1825,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1837,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1849,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -1861,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1873,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1885,7 +1885,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -1897,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1909,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1921,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1945,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -1957,7 +1957,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1969,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -1981,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1993,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2005,7 +2005,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -2017,7 +2017,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -2029,7 +2029,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -2041,7 +2041,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -2053,7 +2053,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -2065,7 +2065,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -2077,7 +2077,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -2089,7 +2089,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -2101,7 +2101,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -2113,7 +2113,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -2125,7 +2125,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -2146,7 +2146,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -2158,7 +2158,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -2170,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -2182,7 +2182,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -2194,7 +2194,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -2206,7 +2206,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -2218,7 +2218,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -2230,7 +2230,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -2242,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -2254,7 +2254,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -2266,7 +2266,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -2278,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -2290,7 +2290,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -2302,7 +2302,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -2314,7 +2314,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -2326,7 +2326,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2338,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -2350,7 +2350,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -2362,7 +2362,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
@@ -2374,7 +2374,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -2386,7 +2386,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -2398,7 +2398,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -2410,7 +2410,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -2422,7 +2422,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -2434,7 +2434,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
@@ -2446,7 +2446,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -2458,7 +2458,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
@@ -2470,7 +2470,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -2482,7 +2482,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -2494,7 +2494,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -2506,7 +2506,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
@@ -2518,7 +2518,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
@@ -2530,7 +2530,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
@@ -2542,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="1">"- "&amp;A67</f>
@@ -2554,7 +2554,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -2566,7 +2566,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
@@ -2578,7 +2578,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -2590,7 +2590,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -2602,7 +2602,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -2614,7 +2614,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
@@ -2626,7 +2626,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -2638,7 +2638,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -2650,7 +2650,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -2662,7 +2662,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
@@ -2674,7 +2674,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -2686,7 +2686,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -2698,7 +2698,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -2710,7 +2710,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -2722,7 +2722,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -2734,7 +2734,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -2746,7 +2746,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -2758,7 +2758,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -2770,7 +2770,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
@@ -2782,7 +2782,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -2794,7 +2794,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
@@ -2806,7 +2806,7 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
@@ -2818,7 +2818,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
@@ -2830,7 +2830,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -2842,7 +2842,7 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
@@ -2854,7 +2854,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
@@ -2866,7 +2866,7 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -2878,7 +2878,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -2890,7 +2890,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
@@ -2902,7 +2902,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -2914,7 +2914,7 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -2926,7 +2926,7 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -2938,7 +2938,7 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -2950,7 +2950,7 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -2962,7 +2962,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
@@ -2971,22 +2971,22 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>451</v>
       </c>
       <c r="B103" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
-        <v>- (ST1- CPM) q2E ( Device Error) Status message is received for every successful cheque transaction</v>
+        <v>- (ST1- CPM) q2E  Device Error  Status message is received for every successful cheque transaction</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -3067,10 +3067,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
@@ -3199,10 +3199,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -3271,10 +3271,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
@@ -3283,10 +3283,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
@@ -3307,10 +3307,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C194" si="2">"- "&amp;A131</f>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="2"/>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
@@ -3355,10 +3355,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
@@ -3379,10 +3379,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
@@ -3427,10 +3427,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
@@ -3511,10 +3511,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
@@ -3535,10 +3535,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
@@ -3547,10 +3547,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
@@ -3571,10 +3571,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
@@ -3595,10 +3595,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
@@ -3655,10 +3655,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
@@ -3679,10 +3679,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B163" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B166" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
@@ -3739,10 +3739,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B167" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
@@ -3751,10 +3751,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
@@ -3787,10 +3787,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B171" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B174" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B175" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
@@ -3859,10 +3859,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B177" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
@@ -3871,10 +3871,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B178" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B179" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B180" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B181" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
@@ -3931,10 +3931,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B185" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
@@ -3967,10 +3967,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B186" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B187" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
@@ -3991,10 +3991,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B188" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B189" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B190" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B192" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B193" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
@@ -4063,10 +4063,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B194" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" si="2"/>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B195" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" ref="C195:C232" si="3">"- "&amp;A195</f>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B196" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="3"/>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B197" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B198" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="3"/>
@@ -4123,10 +4123,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B199" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="3"/>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B200" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="3"/>
@@ -4147,10 +4147,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B201" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B202" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B203" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="3"/>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B204" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="3"/>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B205" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B206" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B207" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B208" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B209" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
@@ -4255,10 +4255,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B210" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="3"/>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B212" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B213" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B214" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="3"/>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B217" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
@@ -4351,10 +4351,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B218" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B219" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B220" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
@@ -4387,10 +4387,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B221" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B222" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B223" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B225" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="3"/>
@@ -4447,10 +4447,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B226" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B227" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B228" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="3"/>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B229" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B230" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
@@ -4510,7 +4510,7 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="3"/>
@@ -4519,10 +4519,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B232" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
